--- a/average_satisfaction_similar_g1.xlsx
+++ b/average_satisfaction_similar_g1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5624B9-060E-497D-9646-B09880796BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB04EF4C-8F24-46C4-9B6B-3418FBD9F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{C5AF5DB2-5F4C-47AC-8A44-E289B6E3AC54}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{4CD70BC2-659C-46C7-88F1-AD7E95D9638F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D278D352-EB46-478A-848E-39449ECFFA88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8462CC47-5BBA-466B-8D2C-A00B99E1BF82}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -397,19 +397,19 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0.6979567399100266</v>
+        <v>0.5249682560451141</v>
       </c>
       <c r="E1">
-        <v>0.55497518037683136</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0.51907476641344319</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0.56816220017976393</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>0.42418462510711524</v>
+        <v>0</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="O1">
-        <v>0.59776355645189505</v>
+        <v>0</v>
       </c>
       <c r="P1">
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>0.43676425964202042</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>0.87366645725062719</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="U1">
-        <v>0.83173672678694266</v>
+        <v>0.8903210193814951</v>
       </c>
       <c r="V1">
-        <v>0</v>
+        <v>0.82899165346841697</v>
       </c>
       <c r="W1">
         <v>0</v>
       </c>
       <c r="X1">
-        <v>0</v>
+        <v>0.80637911438424537</v>
       </c>
       <c r="Y1">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="AB1">
-        <v>0.6900516680293588</v>
+        <v>0</v>
       </c>
       <c r="AC1">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="AI1">
-        <v>0.72580195533817926</v>
+        <v>0</v>
       </c>
       <c r="AJ1">
         <v>0</v>
       </c>
       <c r="AK1">
-        <v>0.65904497591375821</v>
+        <v>0</v>
       </c>
       <c r="AL1">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="AN1">
-        <v>0.64285227617803398</v>
+        <v>0</v>
       </c>
       <c r="AO1">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="AT1">
-        <v>0.67312047797179952</v>
+        <v>0</v>
       </c>
       <c r="AU1">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="AW1">
-        <v>0</v>
+        <v>0.66712136361148922</v>
       </c>
       <c r="AX1">
-        <v>0</v>
+        <v>0.92165976987639464</v>
       </c>
       <c r="AY1">
-        <v>0</v>
+        <v>0.86754211060643094</v>
       </c>
       <c r="AZ1">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="BB1">
-        <v>0.83377463570579657</v>
+        <v>0.8685282424502303</v>
       </c>
       <c r="BC1">
         <v>0</v>
       </c>
       <c r="BD1">
-        <v>0.85193300758059742</v>
+        <v>0</v>
       </c>
       <c r="BE1">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="BL1">
-        <v>0.63688460826652349</v>
+        <v>0</v>
       </c>
       <c r="BM1">
-        <v>0</v>
+        <v>0.90818617678088209</v>
       </c>
       <c r="BN1">
-        <v>0</v>
+        <v>0.77426865967247827</v>
       </c>
       <c r="BO1">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="BR1">
-        <v>0.54505887748744253</v>
+        <v>0</v>
       </c>
       <c r="BS1">
-        <v>0</v>
+        <v>0.75053860764757085</v>
       </c>
       <c r="BT1">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="CA1">
-        <v>0.57956153771241892</v>
+        <v>0.61629158653979454</v>
       </c>
       <c r="CB1">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="CF1">
-        <v>0.69559784834618943</v>
+        <v>0</v>
       </c>
       <c r="CG1">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="CJ1">
-        <v>0.65222248543830785</v>
+        <v>0</v>
       </c>
       <c r="CK1">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="CN1">
-        <v>0</v>
+        <v>0.70240906738365028</v>
       </c>
       <c r="CO1">
-        <v>0.7364721965127432</v>
+        <v>0.62960917954213613</v>
       </c>
       <c r="CP1">
-        <v>0.59948418735716436</v>
+        <v>0</v>
       </c>
       <c r="CQ1">
-        <v>0.55953405201480277</v>
+        <v>0.75771027274190006</v>
       </c>
       <c r="CR1">
-        <v>0.6553004528082893</v>
+        <v>0.67761812519736275</v>
       </c>
       <c r="CS1">
         <v>0</v>
